--- a/artfynd/A 49409-2018.xlsx
+++ b/artfynd/A 49409-2018.xlsx
@@ -680,14 +680,14 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2925488</v>
+        <v>82767985</v>
       </c>
       <c r="B2" t="n">
-        <v>95717</v>
+        <v>98520</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -696,43 +696,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220686</v>
+        <v>222498</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kambräken</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Blechnum spicant</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Roth</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Rallvarsåsen, N om, Vstm</t>
+          <t>Rallvarsåsen, Östra Djupkärra, Vstm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>554922.1678435558</v>
+        <v>555455.7554253098</v>
       </c>
       <c r="R2" t="n">
-        <v>6666659.798901872</v>
+        <v>6666657.85718768</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -759,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2005-08-22</t>
+          <t>2018-10-31</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -769,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2005-08-22</t>
+          <t>2018-10-31</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -777,11 +768,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Beståndet känt sedan 2000</t>
-        </is>
-      </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
@@ -790,30 +776,31 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Barrskog, örtstråk i sluttning</t>
+        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Per Hedenbo</t>
+          <t>Jacob Rudhe</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Kurt Svanberg</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr">
-        <is>
-          <t>Regional miljöövervakning</t>
-        </is>
-      </c>
+          <t>Tommy Pettersson</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>73628426</v>
+        <v>2925488</v>
       </c>
       <c r="B3" t="n">
-        <v>90676</v>
+        <v>95717</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -822,41 +809,50 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5966</v>
+        <v>220686</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Kambräken</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Blechnum spicant</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>(L.) Roth</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Rallvaråsen, Kallmora, Vstm</t>
+          <t>Rallvarsåsen, N om, Vstm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>555060.8299328584</v>
+        <v>554922.1678435558</v>
       </c>
       <c r="R3" t="n">
-        <v>6666699.247834591</v>
+        <v>6666659.798901872</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -880,7 +876,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2018-10-18</t>
+          <t>2005-08-22</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -890,12 +886,17 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2018-10-18</t>
+          <t>2005-08-22</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Beståndet känt sedan 2000</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -910,22 +911,26 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Jacob Rudhe</t>
+          <t>Per Hedenbo</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Jacob Rudhe, Mårten Berglind</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr"/>
+          <t>Kurt Svanberg</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>Regional miljöövervakning</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>73628434</v>
+        <v>73628426</v>
       </c>
       <c r="B4" t="n">
-        <v>93868</v>
+        <v>90676</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -934,25 +939,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2869</v>
+        <v>5966</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sphagnum wulfianum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Girg.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -962,10 +967,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>555410.2466573035</v>
+        <v>555060.8299328584</v>
       </c>
       <c r="R4" t="n">
-        <v>6666266.989929165</v>
+        <v>6666699.247834591</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1034,10 +1039,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>73628427</v>
+        <v>73628434</v>
       </c>
       <c r="B5" t="n">
-        <v>95525</v>
+        <v>93868</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1050,21 +1055,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>221941</v>
+        <v>2869</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Sphagnum wulfianum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Girg.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1074,10 +1079,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>555087.8731823496</v>
+        <v>555410.2466573035</v>
       </c>
       <c r="R5" t="n">
-        <v>6666693.176018199</v>
+        <v>6666266.989929165</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1146,10 +1151,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>73628438</v>
+        <v>73628427</v>
       </c>
       <c r="B6" t="n">
-        <v>89392</v>
+        <v>95525</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1158,47 +1163,38 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1202</v>
+        <v>221941</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Rallvaråsen, Kallmora, Vstm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>555418.0512868065</v>
+        <v>555087.8731823496</v>
       </c>
       <c r="R6" t="n">
-        <v>6666378.23599556</v>
+        <v>6666693.176018199</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1267,10 +1263,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>73628428</v>
+        <v>73628438</v>
       </c>
       <c r="B7" t="n">
-        <v>89356</v>
+        <v>89392</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1279,25 +1275,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1316,10 +1312,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>555030.9077985301</v>
+        <v>555418.0512868065</v>
       </c>
       <c r="R7" t="n">
-        <v>6666631.032298812</v>
+        <v>6666378.23599556</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1388,7 +1384,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>73628437</v>
+        <v>73628428</v>
       </c>
       <c r="B8" t="n">
         <v>89356</v>
@@ -1437,10 +1433,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>555373.1418105701</v>
+        <v>555030.9077985301</v>
       </c>
       <c r="R8" t="n">
-        <v>6666344.170249201</v>
+        <v>6666631.032298812</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1509,10 +1505,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>73628430</v>
+        <v>73628437</v>
       </c>
       <c r="B9" t="n">
-        <v>90008</v>
+        <v>89356</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1525,21 +1521,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6031</v>
+        <v>5447</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Sparassis crispa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Wulfen:Fr.) Fr.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1549,20 +1545,19 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Rallvaråsen, Kallmora, Vstm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>555196.1919990121</v>
+        <v>555373.1418105701</v>
       </c>
       <c r="R9" t="n">
-        <v>6666294.163406033</v>
+        <v>6666344.170249201</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1613,7 +1608,6 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1632,10 +1626,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>73628429</v>
+        <v>73628430</v>
       </c>
       <c r="B10" t="n">
-        <v>89356</v>
+        <v>90008</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1648,21 +1642,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5447</v>
+        <v>6031</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Sparassis crispa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Wulfen:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1672,7 +1666,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -1682,10 +1676,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>555116.9072321811</v>
+        <v>555196.1919990121</v>
       </c>
       <c r="R10" t="n">
-        <v>6666321.875336498</v>
+        <v>6666294.163406033</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1755,10 +1749,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>73628435</v>
+        <v>73628429</v>
       </c>
       <c r="B11" t="n">
-        <v>93868</v>
+        <v>89356</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1771,37 +1765,44 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2869</v>
+        <v>5447</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Sphagnum wulfianum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Girg.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Rallvaråsen, Kallmora, Vstm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>555419.9119038653</v>
+        <v>555116.9072321811</v>
       </c>
       <c r="R11" t="n">
-        <v>6666288.066087172</v>
+        <v>6666321.875336498</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1871,14 +1872,14 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>58093491</v>
+        <v>73628435</v>
       </c>
       <c r="B12" t="n">
-        <v>95717</v>
+        <v>93868</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1887,48 +1888,40 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220686</v>
+        <v>2869</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Kambräken</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Blechnum spicant</t>
+          <t>Sphagnum wulfianum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Roth</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
+          <t>Girg.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Rallvarsåsen, N om (kambräken), Vstm</t>
+          <t>Rallvaråsen, Kallmora, Vstm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>554931.9988315564</v>
+        <v>555419.9119038653</v>
       </c>
       <c r="R12" t="n">
-        <v>6666669.911723791</v>
+        <v>6666288.066087172</v>
       </c>
       <c r="S12" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1950,14 +1943,9 @@
           <t>Norberg</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>U-Nor-0119</t>
-        </is>
-      </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2005-08-22</t>
+          <t>2018-10-18</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1967,7 +1955,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2005-08-22</t>
+          <t>2018-10-18</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -1975,83 +1963,86 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Koord: 1510200/6668300 (±25m). Beståndet känt sedan 2000.</t>
-        </is>
-      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Einar Marklund</t>
+          <t>Jacob Rudhe</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Kurt Svanberg</t>
-        </is>
-      </c>
-      <c r="AY12" t="inlineStr">
-        <is>
-          <t>Floraväkteri Sverige</t>
-        </is>
-      </c>
+          <t>Jacob Rudhe, Mårten Berglind</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>82767968</v>
+        <v>58093491</v>
       </c>
       <c r="B13" t="n">
-        <v>90676</v>
+        <v>95717</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5966</v>
+        <v>220686</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Kambräken</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Blechnum spicant</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>(L.) Roth</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Rallvarsåsen, Östra Djupkärra, Vstm</t>
+          <t>Rallvarsåsen, N om (kambräken), Vstm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>555456.0388963387</v>
+        <v>554931.9988315564</v>
       </c>
       <c r="R13" t="n">
-        <v>6666374.823151034</v>
+        <v>6666669.911723791</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2076,9 +2067,14 @@
           <t>Norberg</t>
         </is>
       </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>U-Nor-0119</t>
+        </is>
+      </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2018-10-31</t>
+          <t>2005-08-22</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2088,7 +2084,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2018-10-31</t>
+          <t>2005-08-22</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2096,6 +2092,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Koord: 1510200/6668300 (±25m). Beståndet känt sedan 2000.</t>
+        </is>
+      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
@@ -2104,31 +2105,30 @@
       </c>
       <c r="AG13" t="b">
         <v>0</v>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>Äldre tallskog, lav-ristyp</t>
-        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Jacob Rudhe</t>
+          <t>Einar Marklund</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Tommy Pettersson</t>
-        </is>
-      </c>
-      <c r="AY13" t="inlineStr"/>
+          <t>Kurt Svanberg</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>82767979</v>
+        <v>82767968</v>
       </c>
       <c r="B14" t="n">
-        <v>77506</v>
+        <v>90676</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2141,21 +2141,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>5966</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2165,10 +2165,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>555181.1407121706</v>
+        <v>555456.0388963387</v>
       </c>
       <c r="R14" t="n">
-        <v>6666266.030194861</v>
+        <v>6666374.823151034</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>Äldre barrskog, kärrkant</t>
+          <t>Äldre tallskog, lav-ristyp</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2242,10 +2242,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>82767974</v>
+        <v>82767979</v>
       </c>
       <c r="B15" t="n">
-        <v>90653</v>
+        <v>77506</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2254,25 +2254,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2282,10 +2282,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>555500.114635868</v>
+        <v>555181.1407121706</v>
       </c>
       <c r="R15" t="n">
-        <v>6666529.967230873</v>
+        <v>6666266.030194861</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>Äldre barrskog, lav-ristyp</t>
+          <t>Äldre barrskog, kärrkant</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2359,10 +2359,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>82767984</v>
+        <v>82767974</v>
       </c>
       <c r="B16" t="n">
-        <v>94121</v>
+        <v>90653</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2371,25 +2371,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>53</v>
+        <v>4364</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2399,10 +2399,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>555289.8792691419</v>
+        <v>555500.114635868</v>
       </c>
       <c r="R16" t="n">
-        <v>6666437.098152588</v>
+        <v>6666529.967230873</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2458,7 +2458,7 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>Äldre barrskog</t>
+          <t>Äldre barrskog, lav-ristyp</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2476,10 +2476,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>82767983</v>
+        <v>82767984</v>
       </c>
       <c r="B17" t="n">
-        <v>93235</v>
+        <v>94121</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2488,25 +2488,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>210</v>
+        <v>53</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Buxbaumia viridis</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2516,10 +2516,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>555418.9818011489</v>
+        <v>555289.8792691419</v>
       </c>
       <c r="R17" t="n">
-        <v>6666481.900270719</v>
+        <v>6666437.098152588</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2593,10 +2593,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>82767971</v>
+        <v>82767983</v>
       </c>
       <c r="B18" t="n">
-        <v>89412</v>
+        <v>93235</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2605,25 +2605,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5442</v>
+        <v>210</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Buxbaumia viridis</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>555204.8887104461</v>
+        <v>555418.9818011489</v>
       </c>
       <c r="R18" t="n">
-        <v>6666412.896192353</v>
+        <v>6666481.900270719</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2710,10 +2710,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>82767969</v>
+        <v>82767971</v>
       </c>
       <c r="B19" t="n">
-        <v>90676</v>
+        <v>89412</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2726,21 +2726,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5966</v>
+        <v>5442</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2750,10 +2750,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>555328.7763572016</v>
+        <v>555204.8887104461</v>
       </c>
       <c r="R19" t="n">
-        <v>6666240.843864152</v>
+        <v>6666412.896192353</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>Äldre barrskog, mager ristyp</t>
+          <t>Äldre barrskog</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2827,10 +2827,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>82767972</v>
+        <v>82767969</v>
       </c>
       <c r="B20" t="n">
-        <v>89412</v>
+        <v>90676</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2843,21 +2843,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5442</v>
+        <v>5966</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>555352.0897629153</v>
+        <v>555328.7763572016</v>
       </c>
       <c r="R20" t="n">
-        <v>6666647.821310863</v>
+        <v>6666240.843864152</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2926,7 +2926,7 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>Äldre barrskog</t>
+          <t>Äldre barrskog, mager ristyp</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -2944,10 +2944,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>82767970</v>
+        <v>82767972</v>
       </c>
       <c r="B21" t="n">
-        <v>89356</v>
+        <v>89412</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2956,25 +2956,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5447</v>
+        <v>5442</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2984,10 +2984,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>555111.8547019844</v>
+        <v>555352.0897629153</v>
       </c>
       <c r="R21" t="n">
-        <v>6666359.174147715</v>
+        <v>6666647.821310863</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>Äldre barrskog, blåbärstyp</t>
+          <t>Äldre barrskog</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3061,10 +3061,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>82767976</v>
+        <v>82767970</v>
       </c>
       <c r="B22" t="n">
-        <v>77506</v>
+        <v>89356</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3073,25 +3073,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3101,10 +3101,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>555290.9783092432</v>
+        <v>555111.8547019844</v>
       </c>
       <c r="R22" t="n">
-        <v>6666596.074348694</v>
+        <v>6666359.174147715</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3160,7 +3160,7 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>Äldre barrskog</t>
+          <t>Äldre barrskog, blåbärstyp</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3178,10 +3178,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>82767973</v>
+        <v>82767976</v>
       </c>
       <c r="B23" t="n">
-        <v>89392</v>
+        <v>77506</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3194,21 +3194,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3218,10 +3218,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>555362.9461491717</v>
+        <v>555290.9783092432</v>
       </c>
       <c r="R23" t="n">
-        <v>6666556.797113388</v>
+        <v>6666596.074348694</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3295,10 +3295,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>82767975</v>
+        <v>82767973</v>
       </c>
       <c r="B24" t="n">
-        <v>89170</v>
+        <v>89392</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3307,25 +3307,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3215</v>
+        <v>1202</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3335,10 +3335,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>555320.9559536349</v>
+        <v>555362.9461491717</v>
       </c>
       <c r="R24" t="n">
-        <v>6666296.041707142</v>
+        <v>6666556.797113388</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>Äldre barrskog, fuktstråk</t>
+          <t>Äldre barrskog</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3412,10 +3412,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>82767978</v>
+        <v>82767975</v>
       </c>
       <c r="B25" t="n">
-        <v>77506</v>
+        <v>89170</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3424,25 +3424,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>3215</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3452,10 +3452,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>555299.0526241254</v>
+        <v>555320.9559536349</v>
       </c>
       <c r="R25" t="n">
-        <v>6666590.216450525</v>
+        <v>6666296.041707142</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>Äldre barrskog</t>
+          <t>Äldre barrskog, fuktstråk</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -3529,7 +3529,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>82767977</v>
+        <v>82767978</v>
       </c>
       <c r="B26" t="n">
         <v>77506</v>
@@ -3569,10 +3569,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>555301.9115967087</v>
+        <v>555299.0526241254</v>
       </c>
       <c r="R26" t="n">
-        <v>6666599.228849299</v>
+        <v>6666590.216450525</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3646,10 +3646,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>86992142</v>
+        <v>82767977</v>
       </c>
       <c r="B27" t="n">
-        <v>95525</v>
+        <v>77506</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3658,41 +3658,41 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>221941</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Rallvarsåsen, Öster Djupkärra, Vstm</t>
+          <t>Rallvarsåsen, Östra Djupkärra, Vstm</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>554980.0610177421</v>
+        <v>555301.9115967087</v>
       </c>
       <c r="R27" t="n">
-        <v>6666626.782195657</v>
+        <v>6666599.228849299</v>
       </c>
       <c r="S27" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2018-10-31</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2018-10-31</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -3745,7 +3745,7 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>Barrnaturskog</t>
+          <t>Äldre barrskog</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
@@ -3756,17 +3756,17 @@
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Jacob Rudhe, Carl Hanson</t>
+          <t>Tommy Pettersson</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>86992135</v>
+        <v>86992142</v>
       </c>
       <c r="B28" t="n">
-        <v>103265</v>
+        <v>95525</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3779,39 +3779,34 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>221144</v>
+        <v>221941</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Rallvarsåsen, Öster Djupkärra, Vstm</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>555028.159947105</v>
+        <v>554980.0610177421</v>
       </c>
       <c r="R28" t="n">
-        <v>6666448.114362422</v>
+        <v>6666626.782195657</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3885,10 +3880,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>86992138</v>
+        <v>86992135</v>
       </c>
       <c r="B29" t="n">
-        <v>89412</v>
+        <v>103265</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3897,35 +3892,31 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5442</v>
+        <v>221144</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -3934,10 +3925,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>555074.1310298748</v>
+        <v>555028.159947105</v>
       </c>
       <c r="R29" t="n">
-        <v>6666577.865012596</v>
+        <v>6666448.114362422</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4011,7 +4002,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>86992144</v>
+        <v>86992138</v>
       </c>
       <c r="B30" t="n">
         <v>89412</v>
@@ -4054,21 +4045,16 @@
           <t>fruktkroppar</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
       <c r="P30" t="inlineStr">
         <is>
           <t>Rallvarsåsen, Öster Djupkärra, Vstm</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>555193.9622792259</v>
+        <v>555074.1310298748</v>
       </c>
       <c r="R30" t="n">
-        <v>6666409.243626444</v>
+        <v>6666577.865012596</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4142,10 +4128,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>86992140</v>
+        <v>86992144</v>
       </c>
       <c r="B31" t="n">
-        <v>77506</v>
+        <v>89412</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4158,34 +4144,48 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
+          <t>(Brot.) Murrill</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr">
         <is>
           <t>Rallvarsåsen, Öster Djupkärra, Vstm</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>555220.7756977986</v>
+        <v>555193.9622792259</v>
       </c>
       <c r="R31" t="n">
-        <v>6666650.826029426</v>
+        <v>6666409.243626444</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4259,10 +4259,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>86992136</v>
+        <v>86992140</v>
       </c>
       <c r="B32" t="n">
-        <v>89356</v>
+        <v>77506</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4271,25 +4271,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4299,10 +4299,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>555113.182888597</v>
+        <v>555220.7756977986</v>
       </c>
       <c r="R32" t="n">
-        <v>6666436.93220853</v>
+        <v>6666650.826029426</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4376,7 +4376,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>86992147</v>
+        <v>86992136</v>
       </c>
       <c r="B33" t="n">
         <v>89356</v>
@@ -4410,21 +4410,16 @@
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
       <c r="P33" t="inlineStr">
         <is>
           <t>Rallvarsåsen, Öster Djupkärra, Vstm</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>555369.0259682742</v>
+        <v>555113.182888597</v>
       </c>
       <c r="R33" t="n">
-        <v>6666650.069940051</v>
+        <v>6666436.93220853</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4498,10 +4493,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>86992139</v>
+        <v>86992147</v>
       </c>
       <c r="B34" t="n">
-        <v>77506</v>
+        <v>89356</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4510,38 +4505,43 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="P34" t="inlineStr">
         <is>
           <t>Rallvarsåsen, Öster Djupkärra, Vstm</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>555200.0796383845</v>
+        <v>555369.0259682742</v>
       </c>
       <c r="R34" t="n">
-        <v>6666633.07457985</v>
+        <v>6666650.069940051</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4615,10 +4615,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>86992143</v>
+        <v>86992139</v>
       </c>
       <c r="B35" t="n">
-        <v>90665</v>
+        <v>77506</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4627,43 +4627,38 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4366</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
       <c r="P35" t="inlineStr">
         <is>
           <t>Rallvarsåsen, Öster Djupkärra, Vstm</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>554883.2304732561</v>
+        <v>555200.0796383845</v>
       </c>
       <c r="R35" t="n">
-        <v>6666660.212973742</v>
+        <v>6666633.07457985</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4737,52 +4732,43 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>86992141</v>
+        <v>86992143</v>
       </c>
       <c r="B36" t="n">
-        <v>96334</v>
+        <v>90665</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>220787</v>
+        <v>4366</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -4791,10 +4777,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>554993.0083113338</v>
+        <v>554883.2304732561</v>
       </c>
       <c r="R36" t="n">
-        <v>6666762.010223597</v>
+        <v>6666660.212973742</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4868,7 +4854,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>88634582</v>
+        <v>86992141</v>
       </c>
       <c r="B37" t="n">
         <v>96334</v>
@@ -4918,14 +4904,14 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Rallvaråsen, ca 400 m NO om (knärot), Vstm</t>
+          <t>Rallvarsåsen, Öster Djupkärra, Vstm</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>554992.5018543133</v>
+        <v>554993.0083113338</v>
       </c>
       <c r="R37" t="n">
-        <v>6666762.500905799</v>
+        <v>6666762.010223597</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4950,11 +4936,6 @@
           <t>Norberg</t>
         </is>
       </c>
-      <c r="X37" t="inlineStr">
-        <is>
-          <t>U-Nor-0261</t>
-        </is>
-      </c>
       <c r="Y37" t="inlineStr">
         <is>
           <t>2020-02-12</t>
@@ -4986,13 +4967,13 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>barrnaturskog</t>
+          <t>Barrnaturskog</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Bo Eriksson</t>
+          <t>Jacob Rudhe</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
@@ -5000,18 +4981,14 @@
           <t>Jacob Rudhe, Carl Hanson</t>
         </is>
       </c>
-      <c r="AY37" t="inlineStr">
-        <is>
-          <t>Floraväkteri Sverige</t>
-        </is>
-      </c>
+      <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>82767985</v>
+        <v>88634582</v>
       </c>
       <c r="B38" t="n">
-        <v>98520</v>
+        <v>96334</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5020,41 +4997,55 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Rallvarsåsen, Östra Djupkärra, Vstm</t>
+          <t>Rallvaråsen, ca 400 m NO om (knärot), Vstm</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>555455.7554253098</v>
+        <v>554992.5018543133</v>
       </c>
       <c r="R38" t="n">
-        <v>6666657.85718768</v>
+        <v>6666762.500905799</v>
       </c>
       <c r="S38" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -5076,9 +5067,14 @@
           <t>Norberg</t>
         </is>
       </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>U-Nor-0261</t>
+        </is>
+      </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2018-10-31</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
@@ -5088,7 +5084,7 @@
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2018-10-31</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
@@ -5107,21 +5103,25 @@
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>Barrskog, örtstråk i sluttning</t>
+          <t>barrnaturskog</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Jacob Rudhe</t>
+          <t>Bo Eriksson</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Tommy Pettersson</t>
-        </is>
-      </c>
-      <c r="AY38" t="inlineStr"/>
+          <t>Jacob Rudhe, Carl Hanson</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 49409-2018.xlsx
+++ b/artfynd/A 49409-2018.xlsx
@@ -680,14 +680,14 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>82767985</v>
+        <v>2925488</v>
       </c>
       <c r="B2" t="n">
-        <v>98520</v>
+        <v>95717</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -696,34 +696,43 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>222498</v>
+        <v>220686</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Kambräken</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Blechnum spicant</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>(L.) Roth</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Rallvarsåsen, Östra Djupkärra, Vstm</t>
+          <t>Rallvarsåsen, N om, Vstm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>555455.7554253098</v>
+        <v>554922.1678435558</v>
       </c>
       <c r="R2" t="n">
-        <v>6666657.85718768</v>
+        <v>6666659.798901872</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -750,7 +759,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2018-10-31</t>
+          <t>2005-08-22</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +769,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2018-10-31</t>
+          <t>2005-08-22</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -768,6 +777,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Beståndet känt sedan 2000</t>
+        </is>
+      </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
@@ -776,31 +790,30 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>Barrskog, örtstråk i sluttning</t>
-        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Jacob Rudhe</t>
+          <t>Per Hedenbo</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Tommy Pettersson</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr"/>
+          <t>Kurt Svanberg</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>Regional miljöövervakning</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2925488</v>
+        <v>73628426</v>
       </c>
       <c r="B3" t="n">
-        <v>95717</v>
+        <v>90676</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,50 +822,41 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220686</v>
+        <v>5966</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kambräken</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Blechnum spicant</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Roth</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Rallvarsåsen, N om, Vstm</t>
+          <t>Rallvaråsen, Kallmora, Vstm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>554922.1678435558</v>
+        <v>555060.8299328584</v>
       </c>
       <c r="R3" t="n">
-        <v>6666659.798901872</v>
+        <v>6666699.247834591</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -876,7 +880,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2005-08-22</t>
+          <t>2018-10-18</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -886,17 +890,12 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2005-08-22</t>
+          <t>2018-10-18</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Beståndet känt sedan 2000</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -911,26 +910,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Per Hedenbo</t>
+          <t>Jacob Rudhe</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Kurt Svanberg</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr">
-        <is>
-          <t>Regional miljöövervakning</t>
-        </is>
-      </c>
+          <t>Jacob Rudhe, Mårten Berglind</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>73628426</v>
+        <v>73628434</v>
       </c>
       <c r="B4" t="n">
-        <v>90676</v>
+        <v>93868</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -939,25 +934,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5966</v>
+        <v>2869</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Sphagnum wulfianum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>Girg.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -967,10 +962,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>555060.8299328584</v>
+        <v>555410.2466573035</v>
       </c>
       <c r="R4" t="n">
-        <v>6666699.247834591</v>
+        <v>6666266.989929165</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1039,10 +1034,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>73628434</v>
+        <v>73628427</v>
       </c>
       <c r="B5" t="n">
-        <v>93868</v>
+        <v>95525</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1055,21 +1050,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2869</v>
+        <v>221941</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sphagnum wulfianum</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Girg.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1079,10 +1074,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>555410.2466573035</v>
+        <v>555087.8731823496</v>
       </c>
       <c r="R5" t="n">
-        <v>6666266.989929165</v>
+        <v>6666693.176018199</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1151,10 +1146,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>73628427</v>
+        <v>73628438</v>
       </c>
       <c r="B6" t="n">
-        <v>95525</v>
+        <v>89392</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1163,38 +1158,47 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>221941</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Rallvaråsen, Kallmora, Vstm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>555087.8731823496</v>
+        <v>555418.0512868065</v>
       </c>
       <c r="R6" t="n">
-        <v>6666693.176018199</v>
+        <v>6666378.23599556</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1263,10 +1267,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>73628438</v>
+        <v>73628428</v>
       </c>
       <c r="B7" t="n">
-        <v>89392</v>
+        <v>89356</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1275,25 +1279,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1312,10 +1316,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>555418.0512868065</v>
+        <v>555030.9077985301</v>
       </c>
       <c r="R7" t="n">
-        <v>6666378.23599556</v>
+        <v>6666631.032298812</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1384,7 +1388,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>73628428</v>
+        <v>73628437</v>
       </c>
       <c r="B8" t="n">
         <v>89356</v>
@@ -1433,10 +1437,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>555030.9077985301</v>
+        <v>555373.1418105701</v>
       </c>
       <c r="R8" t="n">
-        <v>6666631.032298812</v>
+        <v>6666344.170249201</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1505,10 +1509,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>73628437</v>
+        <v>73628430</v>
       </c>
       <c r="B9" t="n">
-        <v>89356</v>
+        <v>90008</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1521,21 +1525,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5447</v>
+        <v>6031</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Sparassis crispa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Wulfen:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1545,19 +1549,20 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Rallvaråsen, Kallmora, Vstm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>555373.1418105701</v>
+        <v>555196.1919990121</v>
       </c>
       <c r="R9" t="n">
-        <v>6666344.170249201</v>
+        <v>6666294.163406033</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1608,6 +1613,7 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1626,10 +1632,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>73628430</v>
+        <v>73628429</v>
       </c>
       <c r="B10" t="n">
-        <v>90008</v>
+        <v>89356</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1642,21 +1648,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6031</v>
+        <v>5447</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Sparassis crispa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Wulfen:Fr.) Fr.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1666,7 +1672,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -1676,10 +1682,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>555196.1919990121</v>
+        <v>555116.9072321811</v>
       </c>
       <c r="R10" t="n">
-        <v>6666294.163406033</v>
+        <v>6666321.875336498</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1749,10 +1755,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>73628429</v>
+        <v>73628435</v>
       </c>
       <c r="B11" t="n">
-        <v>89356</v>
+        <v>93868</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1765,44 +1771,37 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5447</v>
+        <v>2869</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Sphagnum wulfianum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>Girg.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Rallvaråsen, Kallmora, Vstm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>555116.9072321811</v>
+        <v>555419.9119038653</v>
       </c>
       <c r="R11" t="n">
-        <v>6666321.875336498</v>
+        <v>6666288.066087172</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1872,14 +1871,14 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>73628435</v>
+        <v>58093491</v>
       </c>
       <c r="B12" t="n">
-        <v>93868</v>
+        <v>95717</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1888,40 +1887,48 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2869</v>
+        <v>220686</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Kambräken</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Sphagnum wulfianum</t>
+          <t>Blechnum spicant</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Girg.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+          <t>(L.) Roth</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Rallvaråsen, Kallmora, Vstm</t>
+          <t>Rallvarsåsen, N om (kambräken), Vstm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>555419.9119038653</v>
+        <v>554931.9988315564</v>
       </c>
       <c r="R12" t="n">
-        <v>6666288.066087172</v>
+        <v>6666669.911723791</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1943,9 +1950,14 @@
           <t>Norberg</t>
         </is>
       </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>U-Nor-0119</t>
+        </is>
+      </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2018-10-18</t>
+          <t>2005-08-22</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1955,7 +1967,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2018-10-18</t>
+          <t>2005-08-22</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -1963,86 +1975,83 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Koord: 1510200/6668300 (±25m). Beståndet känt sedan 2000.</t>
+        </is>
+      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Jacob Rudhe</t>
+          <t>Einar Marklund</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Jacob Rudhe, Mårten Berglind</t>
-        </is>
-      </c>
-      <c r="AY12" t="inlineStr"/>
+          <t>Kurt Svanberg</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>58093491</v>
+        <v>82767968</v>
       </c>
       <c r="B13" t="n">
-        <v>95717</v>
+        <v>90676</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>220686</v>
+        <v>5966</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Kambräken</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Blechnum spicant</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) Roth</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Rallvarsåsen, N om (kambräken), Vstm</t>
+          <t>Rallvarsåsen, Östra Djupkärra, Vstm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>554931.9988315564</v>
+        <v>555456.0388963387</v>
       </c>
       <c r="R13" t="n">
-        <v>6666669.911723791</v>
+        <v>6666374.823151034</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2067,14 +2076,9 @@
           <t>Norberg</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>U-Nor-0119</t>
-        </is>
-      </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2005-08-22</t>
+          <t>2018-10-31</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2084,7 +2088,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2005-08-22</t>
+          <t>2018-10-31</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2092,11 +2096,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Koord: 1510200/6668300 (±25m). Beståndet känt sedan 2000.</t>
-        </is>
-      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
@@ -2105,30 +2104,31 @@
       </c>
       <c r="AG13" t="b">
         <v>0</v>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>Äldre tallskog, lav-ristyp</t>
+        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Einar Marklund</t>
+          <t>Jacob Rudhe</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Kurt Svanberg</t>
-        </is>
-      </c>
-      <c r="AY13" t="inlineStr">
-        <is>
-          <t>Floraväkteri Sverige</t>
-        </is>
-      </c>
+          <t>Tommy Pettersson</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>82767968</v>
+        <v>82767979</v>
       </c>
       <c r="B14" t="n">
-        <v>90676</v>
+        <v>77506</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2141,21 +2141,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5966</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2165,10 +2165,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>555456.0388963387</v>
+        <v>555181.1407121706</v>
       </c>
       <c r="R14" t="n">
-        <v>6666374.823151034</v>
+        <v>6666266.030194861</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>Äldre tallskog, lav-ristyp</t>
+          <t>Äldre barrskog, kärrkant</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2242,10 +2242,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>82767979</v>
+        <v>82767974</v>
       </c>
       <c r="B15" t="n">
-        <v>77506</v>
+        <v>90653</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2254,25 +2254,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2282,10 +2282,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>555181.1407121706</v>
+        <v>555500.114635868</v>
       </c>
       <c r="R15" t="n">
-        <v>6666266.030194861</v>
+        <v>6666529.967230873</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>Äldre barrskog, kärrkant</t>
+          <t>Äldre barrskog, lav-ristyp</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2359,10 +2359,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>82767974</v>
+        <v>82767984</v>
       </c>
       <c r="B16" t="n">
-        <v>90653</v>
+        <v>94121</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2371,25 +2371,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4364</v>
+        <v>53</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2399,10 +2399,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>555500.114635868</v>
+        <v>555289.8792691419</v>
       </c>
       <c r="R16" t="n">
-        <v>6666529.967230873</v>
+        <v>6666437.098152588</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2458,7 +2458,7 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>Äldre barrskog, lav-ristyp</t>
+          <t>Äldre barrskog</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2476,10 +2476,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>82767984</v>
+        <v>82767983</v>
       </c>
       <c r="B17" t="n">
-        <v>94121</v>
+        <v>93235</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2488,25 +2488,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>53</v>
+        <v>210</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Buxbaumia viridis</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2516,10 +2516,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>555289.8792691419</v>
+        <v>555418.9818011489</v>
       </c>
       <c r="R17" t="n">
-        <v>6666437.098152588</v>
+        <v>6666481.900270719</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2593,10 +2593,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>82767983</v>
+        <v>82767971</v>
       </c>
       <c r="B18" t="n">
-        <v>93235</v>
+        <v>89412</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2605,25 +2605,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>210</v>
+        <v>5442</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Buxbaumia viridis</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>555418.9818011489</v>
+        <v>555204.8887104461</v>
       </c>
       <c r="R18" t="n">
-        <v>6666481.900270719</v>
+        <v>6666412.896192353</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2710,10 +2710,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>82767971</v>
+        <v>82767969</v>
       </c>
       <c r="B19" t="n">
-        <v>89412</v>
+        <v>90676</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2726,21 +2726,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5442</v>
+        <v>5966</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2750,10 +2750,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>555204.8887104461</v>
+        <v>555328.7763572016</v>
       </c>
       <c r="R19" t="n">
-        <v>6666412.896192353</v>
+        <v>6666240.843864152</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>Äldre barrskog</t>
+          <t>Äldre barrskog, mager ristyp</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2827,10 +2827,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>82767969</v>
+        <v>82767972</v>
       </c>
       <c r="B20" t="n">
-        <v>90676</v>
+        <v>89412</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2843,21 +2843,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5966</v>
+        <v>5442</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>555328.7763572016</v>
+        <v>555352.0897629153</v>
       </c>
       <c r="R20" t="n">
-        <v>6666240.843864152</v>
+        <v>6666647.821310863</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2926,7 +2926,7 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>Äldre barrskog, mager ristyp</t>
+          <t>Äldre barrskog</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -2944,10 +2944,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>82767972</v>
+        <v>82767970</v>
       </c>
       <c r="B21" t="n">
-        <v>89412</v>
+        <v>89356</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2956,25 +2956,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5442</v>
+        <v>5447</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2984,10 +2984,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>555352.0897629153</v>
+        <v>555111.8547019844</v>
       </c>
       <c r="R21" t="n">
-        <v>6666647.821310863</v>
+        <v>6666359.174147715</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>Äldre barrskog</t>
+          <t>Äldre barrskog, blåbärstyp</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3061,10 +3061,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>82767970</v>
+        <v>82767976</v>
       </c>
       <c r="B22" t="n">
-        <v>89356</v>
+        <v>77506</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3073,25 +3073,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3101,10 +3101,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>555111.8547019844</v>
+        <v>555290.9783092432</v>
       </c>
       <c r="R22" t="n">
-        <v>6666359.174147715</v>
+        <v>6666596.074348694</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3160,7 +3160,7 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>Äldre barrskog, blåbärstyp</t>
+          <t>Äldre barrskog</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3178,10 +3178,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>82767976</v>
+        <v>82767973</v>
       </c>
       <c r="B23" t="n">
-        <v>77506</v>
+        <v>89392</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3194,21 +3194,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3218,10 +3218,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>555290.9783092432</v>
+        <v>555362.9461491717</v>
       </c>
       <c r="R23" t="n">
-        <v>6666596.074348694</v>
+        <v>6666556.797113388</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3295,10 +3295,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>82767973</v>
+        <v>82767975</v>
       </c>
       <c r="B24" t="n">
-        <v>89392</v>
+        <v>89170</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3307,25 +3307,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1202</v>
+        <v>3215</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3335,10 +3335,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>555362.9461491717</v>
+        <v>555320.9559536349</v>
       </c>
       <c r="R24" t="n">
-        <v>6666556.797113388</v>
+        <v>6666296.041707142</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>Äldre barrskog</t>
+          <t>Äldre barrskog, fuktstråk</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3412,10 +3412,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>82767975</v>
+        <v>82767978</v>
       </c>
       <c r="B25" t="n">
-        <v>89170</v>
+        <v>77506</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3424,25 +3424,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3215</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3452,10 +3452,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>555320.9559536349</v>
+        <v>555299.0526241254</v>
       </c>
       <c r="R25" t="n">
-        <v>6666296.041707142</v>
+        <v>6666590.216450525</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>Äldre barrskog, fuktstråk</t>
+          <t>Äldre barrskog</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -3529,7 +3529,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>82767978</v>
+        <v>82767977</v>
       </c>
       <c r="B26" t="n">
         <v>77506</v>
@@ -3569,10 +3569,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>555299.0526241254</v>
+        <v>555301.9115967087</v>
       </c>
       <c r="R26" t="n">
-        <v>6666590.216450525</v>
+        <v>6666599.228849299</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3646,10 +3646,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>82767977</v>
+        <v>86992142</v>
       </c>
       <c r="B27" t="n">
-        <v>77506</v>
+        <v>95525</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3658,41 +3658,41 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>221941</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Rallvarsåsen, Östra Djupkärra, Vstm</t>
+          <t>Rallvarsåsen, Öster Djupkärra, Vstm</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>555301.9115967087</v>
+        <v>554980.0610177421</v>
       </c>
       <c r="R27" t="n">
-        <v>6666599.228849299</v>
+        <v>6666626.782195657</v>
       </c>
       <c r="S27" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2018-10-31</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2018-10-31</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -3745,7 +3745,7 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>Äldre barrskog</t>
+          <t>Barrnaturskog</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
@@ -3756,17 +3756,17 @@
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Tommy Pettersson</t>
+          <t>Jacob Rudhe, Carl Hanson</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>86992142</v>
+        <v>86992135</v>
       </c>
       <c r="B28" t="n">
-        <v>95525</v>
+        <v>103265</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3779,34 +3779,39 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>221941</v>
+        <v>221144</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Rallvarsåsen, Öster Djupkärra, Vstm</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>554980.0610177421</v>
+        <v>555028.159947105</v>
       </c>
       <c r="R28" t="n">
-        <v>6666626.782195657</v>
+        <v>6666448.114362422</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3880,10 +3885,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>86992135</v>
+        <v>86992138</v>
       </c>
       <c r="B29" t="n">
-        <v>103265</v>
+        <v>89412</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3892,31 +3897,35 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>221144</v>
+        <v>5442</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+          <t>(Brot.) Murrill</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -3925,10 +3934,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>555028.159947105</v>
+        <v>555074.1310298748</v>
       </c>
       <c r="R29" t="n">
-        <v>6666448.114362422</v>
+        <v>6666577.865012596</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4002,7 +4011,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>86992138</v>
+        <v>86992144</v>
       </c>
       <c r="B30" t="n">
         <v>89412</v>
@@ -4045,16 +4054,21 @@
           <t>fruktkroppar</t>
         </is>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr">
         <is>
           <t>Rallvarsåsen, Öster Djupkärra, Vstm</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>555074.1310298748</v>
+        <v>555193.9622792259</v>
       </c>
       <c r="R30" t="n">
-        <v>6666577.865012596</v>
+        <v>6666409.243626444</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4128,10 +4142,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>86992144</v>
+        <v>86992140</v>
       </c>
       <c r="B31" t="n">
-        <v>89412</v>
+        <v>77506</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4144,48 +4158,34 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Rallvarsåsen, Öster Djupkärra, Vstm</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>555193.9622792259</v>
+        <v>555220.7756977986</v>
       </c>
       <c r="R31" t="n">
-        <v>6666409.243626444</v>
+        <v>6666650.826029426</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4259,10 +4259,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>86992140</v>
+        <v>86992136</v>
       </c>
       <c r="B32" t="n">
-        <v>77506</v>
+        <v>89356</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4271,25 +4271,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4299,10 +4299,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>555220.7756977986</v>
+        <v>555113.182888597</v>
       </c>
       <c r="R32" t="n">
-        <v>6666650.826029426</v>
+        <v>6666436.93220853</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4376,7 +4376,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>86992136</v>
+        <v>86992147</v>
       </c>
       <c r="B33" t="n">
         <v>89356</v>
@@ -4410,16 +4410,21 @@
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr">
         <is>
           <t>Rallvarsåsen, Öster Djupkärra, Vstm</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>555113.182888597</v>
+        <v>555369.0259682742</v>
       </c>
       <c r="R33" t="n">
-        <v>6666436.93220853</v>
+        <v>6666650.069940051</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4493,10 +4498,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>86992147</v>
+        <v>86992139</v>
       </c>
       <c r="B34" t="n">
-        <v>89356</v>
+        <v>77506</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4505,43 +4510,38 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
       <c r="P34" t="inlineStr">
         <is>
           <t>Rallvarsåsen, Öster Djupkärra, Vstm</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>555369.0259682742</v>
+        <v>555200.0796383845</v>
       </c>
       <c r="R34" t="n">
-        <v>6666650.069940051</v>
+        <v>6666633.07457985</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4615,10 +4615,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>86992139</v>
+        <v>86992143</v>
       </c>
       <c r="B35" t="n">
-        <v>77506</v>
+        <v>90665</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4627,38 +4627,43 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>4366</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr">
         <is>
           <t>Rallvarsåsen, Öster Djupkärra, Vstm</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>555200.0796383845</v>
+        <v>554883.2304732561</v>
       </c>
       <c r="R35" t="n">
-        <v>6666633.07457985</v>
+        <v>6666660.212973742</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4732,43 +4737,52 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>86992143</v>
+        <v>86992141</v>
       </c>
       <c r="B36" t="n">
-        <v>90665</v>
+        <v>96334</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4366</v>
+        <v>220787</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>teleomorf</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -4777,10 +4791,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>554883.2304732561</v>
+        <v>554993.0083113338</v>
       </c>
       <c r="R36" t="n">
-        <v>6666660.212973742</v>
+        <v>6666762.010223597</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4854,7 +4868,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>86992141</v>
+        <v>88634582</v>
       </c>
       <c r="B37" t="n">
         <v>96334</v>
@@ -4904,14 +4918,14 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Rallvarsåsen, Öster Djupkärra, Vstm</t>
+          <t>Rallvaråsen, ca 400 m NO om (knärot), Vstm</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>554993.0083113338</v>
+        <v>554992.5018543133</v>
       </c>
       <c r="R37" t="n">
-        <v>6666762.010223597</v>
+        <v>6666762.500905799</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4936,6 +4950,11 @@
           <t>Norberg</t>
         </is>
       </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>U-Nor-0261</t>
+        </is>
+      </c>
       <c r="Y37" t="inlineStr">
         <is>
           <t>2020-02-12</t>
@@ -4967,13 +4986,13 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>Barrnaturskog</t>
+          <t>barrnaturskog</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Jacob Rudhe</t>
+          <t>Bo Eriksson</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
@@ -4981,14 +5000,18 @@
           <t>Jacob Rudhe, Carl Hanson</t>
         </is>
       </c>
-      <c r="AY37" t="inlineStr"/>
+      <c r="AY37" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>88634582</v>
+        <v>82767985</v>
       </c>
       <c r="B38" t="n">
-        <v>96334</v>
+        <v>98520</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4997,55 +5020,41 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Rallvaråsen, ca 400 m NO om (knärot), Vstm</t>
+          <t>Rallvarsåsen, Östra Djupkärra, Vstm</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>554992.5018543133</v>
+        <v>555455.7554253098</v>
       </c>
       <c r="R38" t="n">
-        <v>6666762.500905799</v>
+        <v>6666657.85718768</v>
       </c>
       <c r="S38" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -5067,14 +5076,9 @@
           <t>Norberg</t>
         </is>
       </c>
-      <c r="X38" t="inlineStr">
-        <is>
-          <t>U-Nor-0261</t>
-        </is>
-      </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2018-10-31</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
@@ -5084,7 +5088,7 @@
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2018-10-31</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
@@ -5103,25 +5107,21 @@
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>barrnaturskog</t>
+          <t>Barrskog, örtstråk i sluttning</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Bo Eriksson</t>
+          <t>Jacob Rudhe</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Jacob Rudhe, Carl Hanson</t>
-        </is>
-      </c>
-      <c r="AY38" t="inlineStr">
-        <is>
-          <t>Floraväkteri Sverige</t>
-        </is>
-      </c>
+          <t>Tommy Pettersson</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
